--- a/plan de adquisicion de capacitacion/Plan de Adquisición Capacitación_demana-6_V2.6.xlsx
+++ b/plan de adquisicion de capacitacion/Plan de Adquisición Capacitación_demana-6_V2.6.xlsx
@@ -31597,11 +31597,11 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="A1:B2"/>
@@ -31616,11 +31616,11 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:C4"/>
     <mergeCell ref="D3:K3"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="36" orientation="portrait" r:id="rId1"/>
@@ -33139,7 +33139,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="D9" sqref="D9:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -33396,9 +33396,7 @@
         <v>49</v>
       </c>
       <c r="C9" s="70"/>
-      <c r="D9" s="71">
-        <v>10000</v>
-      </c>
+      <c r="D9" s="71"/>
       <c r="E9" s="65"/>
       <c r="F9" s="65"/>
       <c r="G9" s="65"/>
@@ -33412,7 +33410,7 @@
       <c r="O9" s="65"/>
       <c r="P9" s="66">
         <f>SUM(C9:N9)</f>
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
@@ -33421,9 +33419,7 @@
         <v>50</v>
       </c>
       <c r="C10" s="72"/>
-      <c r="D10" s="71">
-        <v>8150</v>
-      </c>
+      <c r="D10" s="71"/>
       <c r="E10" s="65"/>
       <c r="F10" s="65"/>
       <c r="G10" s="65"/>
@@ -33437,7 +33433,7 @@
       <c r="O10" s="65"/>
       <c r="P10" s="66">
         <f>SUM(C10:N10)</f>
-        <v>8150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
@@ -33609,7 +33605,7 @@
       </c>
       <c r="D18" s="73">
         <f>SUM(D4,D9, D12, D15)</f>
-        <v>22000</v>
+        <v>12000</v>
       </c>
       <c r="E18" s="73">
         <f t="shared" ref="E18:L18" si="0">SUM(E4,, F8, E12, E15)</f>
@@ -33651,7 +33647,7 @@
       <c r="O18" s="74"/>
       <c r="P18" s="73">
         <f>SUM(C18:N18)</f>
-        <v>118000</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
@@ -33665,7 +33661,7 @@
       </c>
       <c r="D19" s="75">
         <f t="shared" ref="D19:M19" si="1">SUM(D5,D10,D13,D16)</f>
-        <v>23327</v>
+        <v>15177</v>
       </c>
       <c r="E19" s="75">
         <f t="shared" si="1"/>
@@ -33707,7 +33703,7 @@
       <c r="O19" s="75"/>
       <c r="P19" s="76">
         <f>SUM(C19:N19)</f>
-        <v>56741</v>
+        <v>48591</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="12.75" x14ac:dyDescent="0.2"/>
